--- a/team_folder/newFolder/Project Management/Logging/Risks.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Risks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Report" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>Type of Risk</t>
   </si>
@@ -25,9 +25,6 @@
     <t>Risk Level</t>
   </si>
   <si>
-    <t>Back up ideas</t>
-  </si>
-  <si>
     <t>Risk Extra Cost</t>
   </si>
   <si>
@@ -80,12 +77,99 @@
   </si>
   <si>
     <t>Poses a question of not unknown</t>
+  </si>
+  <si>
+    <t>Battery Dies</t>
+  </si>
+  <si>
+    <t>Follow up plan</t>
+  </si>
+  <si>
+    <t>Charge battery when the battery is 30% or lower</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Battery Fries</t>
+  </si>
+  <si>
+    <t>Critial</t>
+  </si>
+  <si>
+    <t>Speak to teacher</t>
+  </si>
+  <si>
+    <t>2+ Days</t>
+  </si>
+  <si>
+    <t>Snickerdoodle Fries</t>
+  </si>
+  <si>
+    <t>Battery Charger stops working</t>
+  </si>
+  <si>
+    <t>Speak to teacher and barrow battery charger</t>
+  </si>
+  <si>
+    <t>Motors burn out</t>
+  </si>
+  <si>
+    <t>Motor gears are damaged</t>
+  </si>
+  <si>
+    <t>Cameras are not available</t>
+  </si>
+  <si>
+    <t>Create a plan that doesn't use cameras</t>
+  </si>
+  <si>
+    <t>Losing Data</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Backup data more often</t>
+  </si>
+  <si>
+    <t>Sensor doesn't function</t>
+  </si>
+  <si>
+    <t>Different floors</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>Create coeffients to handle different surfaces and/or test with other surfaces</t>
+  </si>
+  <si>
+    <t>Serial Cable not working</t>
+  </si>
+  <si>
+    <t>We can swap it out</t>
+  </si>
+  <si>
+    <t>Risk Probablity</t>
+  </si>
+  <si>
+    <t>Software &amp; Hardware Imcompability</t>
+  </si>
+  <si>
+    <t>IMU giving poor data</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Motors connected in reverse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,27 +725,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,81 +755,309 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="14" t="s">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="15" t="s">
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K5" s="12"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="K6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>14</v>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
